--- a/config_12.08/fish_3d_yutu_random_4.xlsx
+++ b/config_12.08/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="78">
   <si>
     <t>change_time_max</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -316,23 +316,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>117,118,119,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>120,121,122,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123,124,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>124,125,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>126,127,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128,129,130,128,129,130,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>131,132,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>133,134,134,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135,136,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,7 +405,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,6 +421,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -456,7 +462,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -496,6 +502,13 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1055,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
@@ -1326,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1347,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="C18" sqref="C18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1652,6 +1665,102 @@
       </c>
       <c r="H12" s="18">
         <v>1606751999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>12</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="20">
+        <v>71</v>
+      </c>
+      <c r="D13" s="21">
+        <v>2</v>
+      </c>
+      <c r="E13" s="21">
+        <v>1</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H13" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>13</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="20">
+        <v>72</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2</v>
+      </c>
+      <c r="E14" s="21">
+        <v>1</v>
+      </c>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H14" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>14</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="20">
+        <v>73</v>
+      </c>
+      <c r="D15" s="21">
+        <v>2</v>
+      </c>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H15" s="20">
+        <v>1607961599</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>15</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="20">
+        <v>74</v>
+      </c>
+      <c r="D16" s="21">
+        <v>2</v>
+      </c>
+      <c r="E16" s="21">
+        <v>5</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20">
+        <v>1607385600</v>
+      </c>
+      <c r="H16" s="20">
+        <v>1607961599</v>
       </c>
     </row>
   </sheetData>
@@ -1849,8 +1958,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1901,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>49</v>
@@ -1918,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>49</v>
@@ -1935,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>50</v>
@@ -1952,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>51</v>

--- a/config_12.08/fish_3d_yutu_random_4.xlsx
+++ b/config_12.08/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -1068,7 +1068,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -1362,8 +1362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1675,7 +1675,7 @@
         <v>42</v>
       </c>
       <c r="C13" s="20">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="21">
         <v>2</v>
@@ -1699,7 +1699,7 @@
         <v>42</v>
       </c>
       <c r="C14" s="20">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D14" s="21">
         <v>2</v>
@@ -1723,7 +1723,7 @@
         <v>42</v>
       </c>
       <c r="C15" s="20">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="21">
         <v>2</v>
@@ -1747,7 +1747,7 @@
         <v>42</v>
       </c>
       <c r="C16" s="20">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="21">
         <v>2</v>

--- a/config_12.08/fish_3d_yutu_random_4.xlsx
+++ b/config_12.08/fish_3d_yutu_random_4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="6" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="limit" sheetId="12" r:id="rId1"/>
@@ -276,22 +276,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>34,36,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,11,12,13,14,15,16,17,18,19,20,21,22,23,24,25,26,27,28,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>37,38,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39,40,41,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1,2,3,4,5,6,7,8,9,10,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -333,6 +321,18 @@
   </si>
   <si>
     <t>135,136,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>34,36,149,150</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37,38,151,152,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39,40,41,153,154,</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1108,7 +1108,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C2" s="11">
         <v>180</v>
@@ -1117,7 +1117,7 @@
         <v>220</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1125,7 +1125,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="C3" s="11">
         <v>180</v>
@@ -1134,7 +1134,7 @@
         <v>220</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -1142,7 +1142,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C4" s="11">
         <v>200</v>
@@ -1151,7 +1151,7 @@
         <v>250</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1193,7 +1193,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
@@ -1212,7 +1212,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C8" s="11">
         <v>280</v>
@@ -1339,7 +1339,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C15" s="11">
         <v>2000</v>
@@ -1958,7 +1958,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2010,7 +2010,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="13" t="s">
         <v>49</v>
@@ -2019,7 +2019,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -2027,7 +2027,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C4" s="13" t="s">
         <v>49</v>
@@ -2036,7 +2036,7 @@
         <v>15</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2044,7 +2044,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C5" s="13" t="s">
         <v>50</v>
@@ -2053,7 +2053,7 @@
         <v>14</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2061,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C6" s="13" t="s">
         <v>51</v>
@@ -2070,7 +2070,7 @@
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
